--- a/files/excel.xlsx
+++ b/files/excel.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>Бренд</t>
   </si>
@@ -45,144 +45,188 @@
     <t>Характеристики</t>
   </si>
   <si>
-    <t>Samsung</t>
-  </si>
-  <si>
-    <t>SAMSUNGLCD001</t>
-  </si>
-  <si>
-    <t>TM901,TM902</t>
-  </si>
-  <si>
-    <t>4K UHD Smart TV</t>
-  </si>
-  <si>
-    <t>QLED, 55 inch</t>
-  </si>
-  <si>
-    <t>Electronics</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
-    <t>Resolution: 3840x2160</t>
-  </si>
-  <si>
-    <t>LG</t>
-  </si>
-  <si>
-    <t>LGWASH002</t>
-  </si>
-  <si>
-    <t>WM123</t>
-  </si>
-  <si>
-    <t>Front Load Washing Machine</t>
-  </si>
-  <si>
-    <t>8kg capacity</t>
-  </si>
-  <si>
-    <t>Home Appliances</t>
-  </si>
-  <si>
-    <t>Energy Class: A+++</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>IPHONEXYZ</t>
-  </si>
-  <si>
-    <t>PHN001</t>
-  </si>
-  <si>
-    <t>Smartphone</t>
-  </si>
-  <si>
-    <t>128GB, Space Gray</t>
-  </si>
-  <si>
-    <t>Chip: A15 Bionic</t>
-  </si>
-  <si>
-    <t>IKEA</t>
-  </si>
-  <si>
-    <t>CHAIRBILLY</t>
-  </si>
-  <si>
-    <t>FURN005</t>
-  </si>
-  <si>
-    <t>Ergonomic Office Chair</t>
-  </si>
-  <si>
-    <t>Adjustable height</t>
-  </si>
-  <si>
-    <t>Furniture</t>
-  </si>
-  <si>
-    <t>Material: Mesh, Swivel: Yes</t>
-  </si>
-  <si>
     <t>Bosch</t>
   </si>
   <si>
-    <t>BOSCHDRILL001</t>
-  </si>
-  <si>
-    <t>TOOL010</t>
-  </si>
-  <si>
-    <t>Cordless Drill</t>
-  </si>
-  <si>
-    <t>18V, Lithium-Ion</t>
-  </si>
-  <si>
-    <t>Power Tools</t>
-  </si>
-  <si>
-    <t>Speed: 0-1500 RPM</t>
-  </si>
-  <si>
-    <t>4K UHD Smart TV (Updated)</t>
-  </si>
-  <si>
-    <t>QLED, 65 inch</t>
-  </si>
-  <si>
-    <t>Resolution: 3840x2160, HDR</t>
-  </si>
-  <si>
-    <t>LGFRIDGE003</t>
-  </si>
-  <si>
-    <t>REF001</t>
-  </si>
-  <si>
-    <t>Double Door Refrigerator</t>
-  </si>
-  <si>
-    <t>350L, Frost-Free</t>
-  </si>
-  <si>
-    <t>Discontinued</t>
-  </si>
-  <si>
-    <t>Energy: 5 Star</t>
+    <t>ABS-SENSOR-001</t>
+  </si>
+  <si>
+    <t>0265005234, 0265005235</t>
+  </si>
+  <si>
+    <t>Датчик ABS переднего колеса</t>
+  </si>
+  <si>
+    <t>Оригинальная запчасть</t>
+  </si>
+  <si>
+    <t>Рулевое управление</t>
+  </si>
+  <si>
+    <t>Сторона установки: Передняя ось</t>
+  </si>
+  <si>
+    <t>ZF</t>
+  </si>
+  <si>
+    <t>SUSP-ARM-002</t>
+  </si>
+  <si>
+    <t>31126777936, 31126777937</t>
+  </si>
+  <si>
+    <t>Рычаг подвески нижний левый</t>
+  </si>
+  <si>
+    <t>Алюминиевый, усиленный</t>
+  </si>
+  <si>
+    <t>Подвеска колеса</t>
+  </si>
+  <si>
+    <t>Материал: Алюминий, Сторона установки: Левая</t>
+  </si>
+  <si>
+    <t>Mann-Filter</t>
+  </si>
+  <si>
+    <t>OIL-FILTER-003</t>
+  </si>
+  <si>
+    <t>HU 711/51 X</t>
+  </si>
+  <si>
+    <t>Масляный фильтр двигателя</t>
+  </si>
+  <si>
+    <t>Для дизельных двигателей</t>
+  </si>
+  <si>
+    <t>Тип: Картридж, Применение: Дизель</t>
+  </si>
+  <si>
+    <t>Contitech</t>
+  </si>
+  <si>
+    <t>BELT-DRIVE-004</t>
+  </si>
+  <si>
+    <t>6PK1000</t>
+  </si>
+  <si>
+    <t>Ремень приводной</t>
+  </si>
+  <si>
+    <t>Для систем ГРМ</t>
+  </si>
+  <si>
+    <t>Автозапчасти</t>
+  </si>
+  <si>
+    <t>Количество ручейков: 6, Длина: 1000 мм</t>
+  </si>
+  <si>
+    <t>Sachs</t>
+  </si>
+  <si>
+    <t>SHOCK-ABS-005</t>
+  </si>
+  <si>
+    <t>Амортизатор задний</t>
+  </si>
+  <si>
+    <t>Газомасляный</t>
+  </si>
+  <si>
+    <t>Тип: Газомасляный, Сторона установки: Задняя</t>
+  </si>
+  <si>
+    <t>SPARK-PLUG-006</t>
+  </si>
+  <si>
+    <t>FR7DPP33</t>
+  </si>
+  <si>
+    <t>Свеча зажигания</t>
+  </si>
+  <si>
+    <t>Платиновая, для бензиновых двигателей</t>
+  </si>
+  <si>
+    <t>Межэлектродный зазор: 0.8 мм</t>
+  </si>
+  <si>
+    <t>Lemforder</t>
+  </si>
+  <si>
+    <t>TIE-ROD-007</t>
+  </si>
+  <si>
+    <t>Рулевая тяга</t>
+  </si>
+  <si>
+    <t>С наконечником</t>
+  </si>
+  <si>
+    <t>Сторона установки: Передняя, Тип: С наконечником</t>
+  </si>
+  <si>
+    <t>TRW</t>
+  </si>
+  <si>
+    <t>BRAKE-PAD-008</t>
+  </si>
+  <si>
+    <t>GDB1330</t>
+  </si>
+  <si>
+    <t>Комплект тормозных колодок</t>
+  </si>
+  <si>
+    <t>Передние, керамические</t>
+  </si>
+  <si>
+    <t>Тип: Керамические, Сторона установки: Передняя</t>
+  </si>
+  <si>
+    <t>Varta</t>
+  </si>
+  <si>
+    <t>BATTERY-009</t>
+  </si>
+  <si>
+    <t>Аккумулятор автомобильный</t>
+  </si>
+  <si>
+    <t>74 Ач, 680 А</t>
+  </si>
+  <si>
+    <t>Емкость: 74 Ач, Пусковой ток: 680 А</t>
+  </si>
+  <si>
+    <t>Активный</t>
+  </si>
+  <si>
+    <t>Актуально</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -210,11 +254,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -272,7 +322,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -307,7 +357,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -484,7 +534,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,220 +542,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1">
+        <v>313170</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2588301</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" t="s">
-        <v>51</v>
+      <c r="G9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5740120683132</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
